--- a/Excel/MapData.xlsx
+++ b/Excel/MapData.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
   <si>
     <t>int</t>
   </si>
@@ -53,6 +53,9 @@
     <t>生成位置对应的y坐标</t>
   </si>
   <si>
+    <t>对应MaskData中面具的ID</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
@@ -66,6 +69,9 @@
   </si>
   <si>
     <t>y</t>
+  </si>
+  <si>
+    <t>maskID</t>
   </si>
   <si>
     <t>E_Volume</t>
@@ -1243,13 +1249,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23148148148148" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.23148148148148" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="4" width="17.3055555555556" style="1" customWidth="1"/>
@@ -1266,7 +1272,7 @@
     <col min="16" max="16384" width="9.23148148148148" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1282,8 +1288,11 @@
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" ht="101" customHeight="1" spans="1:5">
+    <row r="2" ht="101" customHeight="1" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1299,27 +1308,33 @@
       <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
@@ -1331,40 +1346,40 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>10001</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C19" s="1">
         <v>0</v>
@@ -1375,13 +1390,16 @@
       <c r="E19" s="1">
         <v>4</v>
       </c>
+      <c r="F19" s="1">
+        <v>10001</v>
+      </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>10002</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C20" s="1">
         <v>0</v>
@@ -1391,6 +1409,129 @@
       </c>
       <c r="E20" s="1">
         <v>2</v>
+      </c>
+      <c r="F20" s="1">
+        <v>20001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1">
+        <v>10003</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
+        <v>3</v>
+      </c>
+      <c r="E21" s="1">
+        <v>6</v>
+      </c>
+      <c r="F21" s="1">
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1">
+        <v>10004</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1">
+        <v>3</v>
+      </c>
+      <c r="E22" s="1">
+        <v>2</v>
+      </c>
+      <c r="F22" s="1">
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1">
+        <v>10005</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
+        <v>5</v>
+      </c>
+      <c r="E23" s="1">
+        <v>2</v>
+      </c>
+      <c r="F23" s="1">
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1">
+        <v>10006</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1">
+        <v>5</v>
+      </c>
+      <c r="E24" s="1">
+        <v>7</v>
+      </c>
+      <c r="F24" s="1">
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1">
+        <v>10007</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1">
+        <v>7</v>
+      </c>
+      <c r="E25" s="1">
+        <v>4</v>
+      </c>
+      <c r="F25" s="1">
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1">
+        <v>10008</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1">
+        <v>10</v>
+      </c>
+      <c r="E26" s="1">
+        <v>2</v>
+      </c>
+      <c r="F26" s="1">
+        <v>10001</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/MapData.xlsx
+++ b/Excel/MapData.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="32">
   <si>
     <t>int</t>
   </si>
@@ -101,7 +101,28 @@
     <t>老鼠</t>
   </si>
   <si>
+    <t>巧克力</t>
+  </si>
+  <si>
+    <t>栅栏</t>
+  </si>
+  <si>
     <t>磁带</t>
+  </si>
+  <si>
+    <t>石头</t>
+  </si>
+  <si>
+    <t>狼</t>
+  </si>
+  <si>
+    <t>沼泽</t>
+  </si>
+  <si>
+    <t>路灯</t>
+  </si>
+  <si>
+    <t>乌鸦</t>
   </si>
 </sst>
 </file>
@@ -1249,10 +1270,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23148148148148" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1272,7 +1293,7 @@
     <col min="16" max="16384" width="9.23148148148148" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" s="1" customFormat="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1292,7 +1313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="101" customHeight="1" spans="1:6">
+    <row r="2" s="1" customFormat="1" ht="101" customHeight="1" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1312,7 +1333,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" s="1" customFormat="1" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1332,7 +1353,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" s="1" customFormat="1" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -1346,7 +1367,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" s="1" customFormat="1" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -1360,7 +1381,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" s="1" customFormat="1" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -1374,7 +1395,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" s="1" customFormat="1" spans="1:6">
       <c r="A19" s="1">
         <v>10001</v>
       </c>
@@ -1385,16 +1406,16 @@
         <v>0</v>
       </c>
       <c r="D19" s="1">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E19" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F19" s="1">
         <v>10001</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" s="1" customFormat="1" spans="1:6">
       <c r="A20" s="1">
         <v>10002</v>
       </c>
@@ -1405,16 +1426,16 @@
         <v>0</v>
       </c>
       <c r="D20" s="1">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E20" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F20" s="1">
-        <v>20001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>20002</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="1:6">
       <c r="A21" s="1">
         <v>10003</v>
       </c>
@@ -1425,16 +1446,16 @@
         <v>0</v>
       </c>
       <c r="D21" s="1">
+        <v>11</v>
+      </c>
+      <c r="E21" s="1">
         <v>3</v>
-      </c>
-      <c r="E21" s="1">
-        <v>6</v>
       </c>
       <c r="F21" s="1">
         <v>10001</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" s="1" customFormat="1" spans="1:6">
       <c r="A22" s="1">
         <v>10004</v>
       </c>
@@ -1445,16 +1466,16 @@
         <v>0</v>
       </c>
       <c r="D22" s="1">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E22" s="1">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F22" s="1">
         <v>10001</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" s="1" customFormat="1" spans="1:6">
       <c r="A23" s="1">
         <v>10005</v>
       </c>
@@ -1465,72 +1486,1652 @@
         <v>0</v>
       </c>
       <c r="D23" s="1">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E23" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F23" s="1">
         <v>10001</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" s="1" customFormat="1" spans="1:6">
       <c r="A24" s="1">
         <v>10006</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C24" s="1">
         <v>0</v>
       </c>
       <c r="D24" s="1">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E24" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F24" s="1">
-        <v>10001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>10006</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="1:6">
       <c r="A25" s="1">
         <v>10007</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C25" s="1">
         <v>0</v>
       </c>
       <c r="D25" s="1">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E25" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F25" s="1">
-        <v>10001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>10006</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="1:6">
       <c r="A26" s="1">
         <v>10008</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1">
+        <v>19</v>
+      </c>
+      <c r="E26" s="1">
+        <v>3</v>
+      </c>
+      <c r="F26" s="1">
+        <v>10006</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="1:6">
+      <c r="A27" s="1">
+        <v>10009</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1">
+        <v>19</v>
+      </c>
+      <c r="E27" s="1">
+        <v>4</v>
+      </c>
+      <c r="F27" s="1">
+        <v>10006</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="1" spans="1:6">
+      <c r="A28" s="1">
+        <v>10010</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1">
+        <v>19</v>
+      </c>
+      <c r="E28" s="1">
+        <v>5</v>
+      </c>
+      <c r="F28" s="1">
+        <v>10006</v>
+      </c>
+    </row>
+    <row r="29" s="1" customFormat="1" spans="1:6">
+      <c r="A29" s="1">
+        <v>10011</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1">
+        <v>19</v>
+      </c>
+      <c r="E29" s="1">
+        <v>6</v>
+      </c>
+      <c r="F29" s="1">
+        <v>10006</v>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="1" spans="1:6">
+      <c r="A30" s="1">
+        <v>10012</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1">
+        <v>19</v>
+      </c>
+      <c r="E30" s="1">
+        <v>7</v>
+      </c>
+      <c r="F30" s="1">
+        <v>10006</v>
+      </c>
+    </row>
+    <row r="31" s="1" customFormat="1" spans="1:6">
+      <c r="A31" s="1">
+        <v>10013</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1">
+        <v>19</v>
+      </c>
+      <c r="E31" s="1">
+        <v>8</v>
+      </c>
+      <c r="F31" s="1">
+        <v>10006</v>
+      </c>
+    </row>
+    <row r="32" s="1" customFormat="1" spans="1:6">
+      <c r="A32" s="1">
+        <v>10014</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0</v>
+      </c>
+      <c r="D32" s="1">
+        <v>19</v>
+      </c>
+      <c r="E32" s="1">
+        <v>9</v>
+      </c>
+      <c r="F32" s="1">
+        <v>10006</v>
+      </c>
+    </row>
+    <row r="33" s="1" customFormat="1" spans="1:6">
+      <c r="A33" s="1">
+        <v>10015</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1">
+        <v>19</v>
+      </c>
+      <c r="E33" s="1">
+        <v>10</v>
+      </c>
+      <c r="F33" s="1">
+        <v>10006</v>
+      </c>
+    </row>
+    <row r="34" s="1" customFormat="1" spans="1:6">
+      <c r="A34" s="1">
+        <v>10016</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0</v>
+      </c>
+      <c r="D34" s="1">
+        <v>20</v>
+      </c>
+      <c r="E34" s="1">
+        <v>5</v>
+      </c>
+      <c r="F34" s="1">
+        <v>20001</v>
+      </c>
+    </row>
+    <row r="35" s="1" customFormat="1" spans="1:6">
+      <c r="A35" s="1">
+        <v>10017</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0</v>
+      </c>
+      <c r="D35" s="1">
+        <v>22</v>
+      </c>
+      <c r="E35" s="1">
+        <v>5</v>
+      </c>
+      <c r="F35" s="1">
+        <v>20002</v>
+      </c>
+    </row>
+    <row r="36" s="1" customFormat="1" spans="1:6">
+      <c r="A36" s="1">
+        <v>10018</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1">
         <v>23</v>
       </c>
-      <c r="C26" s="1">
-        <v>0</v>
-      </c>
-      <c r="D26" s="1">
+      <c r="E36" s="1">
+        <v>5</v>
+      </c>
+      <c r="F36" s="1">
+        <v>20003</v>
+      </c>
+    </row>
+    <row r="37" s="1" customFormat="1" spans="1:6">
+      <c r="A37" s="1">
+        <v>10019</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1">
+        <v>24</v>
+      </c>
+      <c r="E37" s="1">
+        <v>4</v>
+      </c>
+      <c r="F37" s="1">
+        <v>20003</v>
+      </c>
+    </row>
+    <row r="38" s="1" customFormat="1" spans="1:6">
+      <c r="A38" s="1">
+        <v>10020</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1">
+        <v>24</v>
+      </c>
+      <c r="E38" s="1">
+        <v>6</v>
+      </c>
+      <c r="F38" s="1">
+        <v>20003</v>
+      </c>
+    </row>
+    <row r="39" s="1" customFormat="1" spans="1:6">
+      <c r="A39" s="1">
+        <v>10021</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="1">
+        <v>2</v>
+      </c>
+      <c r="D39" s="1">
+        <v>25</v>
+      </c>
+      <c r="E39" s="1">
+        <v>5</v>
+      </c>
+      <c r="F39" s="1">
+        <v>10002</v>
+      </c>
+    </row>
+    <row r="40" s="1" customFormat="1" spans="1:6">
+      <c r="A40" s="1">
+        <v>10022</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0</v>
+      </c>
+      <c r="D40" s="1">
+        <v>26</v>
+      </c>
+      <c r="E40" s="1">
+        <v>6</v>
+      </c>
+      <c r="F40" s="1">
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="41" s="1" customFormat="1" spans="1:6">
+      <c r="A41" s="1">
+        <v>10023</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0</v>
+      </c>
+      <c r="D41" s="1">
+        <v>27</v>
+      </c>
+      <c r="E41" s="1">
+        <v>2</v>
+      </c>
+      <c r="F41" s="1">
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="42" s="1" customFormat="1" spans="1:6">
+      <c r="A42" s="1">
+        <v>10024</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0</v>
+      </c>
+      <c r="D42" s="1">
+        <v>29</v>
+      </c>
+      <c r="E42" s="1">
+        <v>5</v>
+      </c>
+      <c r="F42" s="1">
+        <v>20006</v>
+      </c>
+    </row>
+    <row r="43" s="1" customFormat="1" spans="1:6">
+      <c r="A43" s="1">
+        <v>10025</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0</v>
+      </c>
+      <c r="D43" s="1">
+        <v>32</v>
+      </c>
+      <c r="E43" s="1">
+        <v>2</v>
+      </c>
+      <c r="F43" s="1">
+        <v>20006</v>
+      </c>
+    </row>
+    <row r="44" s="1" customFormat="1" spans="1:6">
+      <c r="A44" s="1">
+        <v>10026</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44" s="1">
+        <v>2</v>
+      </c>
+      <c r="D44" s="1">
+        <v>32</v>
+      </c>
+      <c r="E44" s="1">
+        <v>5</v>
+      </c>
+      <c r="F44" s="1">
+        <v>20004</v>
+      </c>
+    </row>
+    <row r="45" s="1" customFormat="1" spans="1:6">
+      <c r="A45" s="1">
+        <v>10027</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0</v>
+      </c>
+      <c r="D45" s="1">
+        <v>32</v>
+      </c>
+      <c r="E45" s="1">
+        <v>8</v>
+      </c>
+      <c r="F45" s="1">
+        <v>20006</v>
+      </c>
+    </row>
+    <row r="46" s="1" customFormat="1" spans="1:6">
+      <c r="A46" s="1">
+        <v>10028</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0</v>
+      </c>
+      <c r="D46" s="1">
+        <v>33</v>
+      </c>
+      <c r="E46" s="1">
+        <v>5</v>
+      </c>
+      <c r="F46" s="1">
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="47" s="1" customFormat="1" spans="1:6">
+      <c r="A47" s="1">
+        <v>10029</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0</v>
+      </c>
+      <c r="D47" s="1">
+        <v>37</v>
+      </c>
+      <c r="E47" s="1">
+        <v>1</v>
+      </c>
+      <c r="F47" s="1">
+        <v>10006</v>
+      </c>
+    </row>
+    <row r="48" s="1" customFormat="1" spans="1:6">
+      <c r="A48" s="1">
+        <v>10030</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0</v>
+      </c>
+      <c r="D48" s="1">
+        <v>37</v>
+      </c>
+      <c r="E48" s="1">
+        <v>2</v>
+      </c>
+      <c r="F48" s="1">
+        <v>10006</v>
+      </c>
+    </row>
+    <row r="49" s="1" customFormat="1" spans="1:6">
+      <c r="A49" s="1">
+        <v>10031</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0</v>
+      </c>
+      <c r="D49" s="1">
+        <v>37</v>
+      </c>
+      <c r="E49" s="1">
+        <v>3</v>
+      </c>
+      <c r="F49" s="1">
+        <v>10006</v>
+      </c>
+    </row>
+    <row r="50" s="1" customFormat="1" spans="1:6">
+      <c r="A50" s="1">
+        <v>10032</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0</v>
+      </c>
+      <c r="D50" s="1">
+        <v>37</v>
+      </c>
+      <c r="E50" s="1">
+        <v>4</v>
+      </c>
+      <c r="F50" s="1">
+        <v>10006</v>
+      </c>
+    </row>
+    <row r="51" s="1" customFormat="1" spans="1:6">
+      <c r="A51" s="1">
+        <v>10033</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0</v>
+      </c>
+      <c r="D51" s="1">
+        <v>37</v>
+      </c>
+      <c r="E51" s="1">
+        <v>5</v>
+      </c>
+      <c r="F51" s="1">
+        <v>10006</v>
+      </c>
+    </row>
+    <row r="52" s="1" customFormat="1" spans="1:6">
+      <c r="A52" s="1">
+        <v>10034</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" s="1">
+        <v>0</v>
+      </c>
+      <c r="D52" s="1">
+        <v>37</v>
+      </c>
+      <c r="E52" s="1">
+        <v>6</v>
+      </c>
+      <c r="F52" s="1">
+        <v>10006</v>
+      </c>
+    </row>
+    <row r="53" s="1" customFormat="1" spans="1:6">
+      <c r="A53" s="1">
+        <v>10035</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C53" s="1">
+        <v>0</v>
+      </c>
+      <c r="D53" s="1">
+        <v>37</v>
+      </c>
+      <c r="E53" s="1">
+        <v>7</v>
+      </c>
+      <c r="F53" s="1">
+        <v>10006</v>
+      </c>
+    </row>
+    <row r="54" s="1" customFormat="1" spans="1:6">
+      <c r="A54" s="1">
+        <v>10036</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C54" s="1">
+        <v>0</v>
+      </c>
+      <c r="D54" s="1">
+        <v>37</v>
+      </c>
+      <c r="E54" s="1">
+        <v>8</v>
+      </c>
+      <c r="F54" s="1">
+        <v>10006</v>
+      </c>
+    </row>
+    <row r="55" s="1" customFormat="1" spans="1:6">
+      <c r="A55" s="1">
+        <v>10037</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C55" s="1">
+        <v>0</v>
+      </c>
+      <c r="D55" s="1">
+        <v>37</v>
+      </c>
+      <c r="E55" s="1">
+        <v>9</v>
+      </c>
+      <c r="F55" s="1">
+        <v>10006</v>
+      </c>
+    </row>
+    <row r="56" s="1" customFormat="1" spans="1:6">
+      <c r="A56" s="1">
+        <v>10038</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C56" s="1">
+        <v>0</v>
+      </c>
+      <c r="D56" s="1">
+        <v>37</v>
+      </c>
+      <c r="E56" s="1">
         <v>10</v>
       </c>
-      <c r="E26" s="1">
+      <c r="F56" s="1">
+        <v>10006</v>
+      </c>
+    </row>
+    <row r="57" s="1" customFormat="1" spans="1:6">
+      <c r="A57" s="1">
+        <v>10039</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C57" s="1">
+        <v>0</v>
+      </c>
+      <c r="D57" s="1">
+        <v>38</v>
+      </c>
+      <c r="E57" s="1">
+        <v>5</v>
+      </c>
+      <c r="F57" s="1">
+        <v>20001</v>
+      </c>
+    </row>
+    <row r="58" s="1" customFormat="1" spans="1:6">
+      <c r="A58" s="1">
+        <v>10040</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C58" s="1">
         <v>2</v>
       </c>
-      <c r="F26" s="1">
+      <c r="D58" s="1">
+        <v>41</v>
+      </c>
+      <c r="E58" s="1">
+        <v>5</v>
+      </c>
+      <c r="F58" s="1">
+        <v>10002</v>
+      </c>
+    </row>
+    <row r="59" s="1" customFormat="1" spans="1:6">
+      <c r="A59" s="1">
+        <v>10041</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C59" s="1">
+        <v>0</v>
+      </c>
+      <c r="D59" s="1">
+        <v>43</v>
+      </c>
+      <c r="E59" s="1">
+        <v>5</v>
+      </c>
+      <c r="F59" s="1">
+        <v>20003</v>
+      </c>
+    </row>
+    <row r="60" s="1" customFormat="1" spans="1:6">
+      <c r="A60" s="1">
+        <v>10042</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C60" s="1">
+        <v>0</v>
+      </c>
+      <c r="D60" s="1">
+        <v>44</v>
+      </c>
+      <c r="E60" s="1">
+        <v>2</v>
+      </c>
+      <c r="F60" s="1">
+        <v>20002</v>
+      </c>
+    </row>
+    <row r="61" s="1" customFormat="1" spans="1:6">
+      <c r="A61" s="1">
+        <v>10043</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C61" s="1">
+        <v>0</v>
+      </c>
+      <c r="D61" s="1">
+        <v>44</v>
+      </c>
+      <c r="E61" s="1">
+        <v>5</v>
+      </c>
+      <c r="F61" s="1">
+        <v>20003</v>
+      </c>
+    </row>
+    <row r="62" s="1" customFormat="1" spans="1:6">
+      <c r="A62" s="1">
+        <v>10044</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C62" s="1">
+        <v>2</v>
+      </c>
+      <c r="D62" s="1">
+        <v>44</v>
+      </c>
+      <c r="E62" s="1">
+        <v>8</v>
+      </c>
+      <c r="F62" s="1">
+        <v>20004</v>
+      </c>
+    </row>
+    <row r="63" s="1" customFormat="1" spans="1:6">
+      <c r="A63" s="1">
+        <v>10045</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C63" s="1">
+        <v>0</v>
+      </c>
+      <c r="D63" s="1">
+        <v>45</v>
+      </c>
+      <c r="E63" s="1">
+        <v>5</v>
+      </c>
+      <c r="F63" s="1">
+        <v>20003</v>
+      </c>
+    </row>
+    <row r="64" s="1" customFormat="1" spans="1:6">
+      <c r="A64" s="1">
+        <v>10046</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C64" s="1">
+        <v>0</v>
+      </c>
+      <c r="D64" s="1">
+        <v>45</v>
+      </c>
+      <c r="E64" s="1">
+        <v>8</v>
+      </c>
+      <c r="F64" s="1">
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="65" s="1" customFormat="1" spans="1:6">
+      <c r="A65" s="1">
+        <v>10047</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C65" s="1">
+        <v>0</v>
+      </c>
+      <c r="D65" s="1">
+        <v>47</v>
+      </c>
+      <c r="E65" s="1">
+        <v>2</v>
+      </c>
+      <c r="F65" s="1">
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="66" s="1" customFormat="1" spans="1:6">
+      <c r="A66" s="1">
+        <v>10048</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C66" s="1">
+        <v>2</v>
+      </c>
+      <c r="D66" s="1">
+        <v>51</v>
+      </c>
+      <c r="E66" s="1">
+        <v>5</v>
+      </c>
+      <c r="F66" s="1">
+        <v>20004</v>
+      </c>
+    </row>
+    <row r="67" s="1" customFormat="1" spans="1:6">
+      <c r="A67" s="1">
+        <v>10049</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C67" s="1">
+        <v>0</v>
+      </c>
+      <c r="D67" s="1">
+        <v>51</v>
+      </c>
+      <c r="E67" s="1">
+        <v>8</v>
+      </c>
+      <c r="F67" s="1">
+        <v>20006</v>
+      </c>
+    </row>
+    <row r="68" s="1" customFormat="1" spans="1:6">
+      <c r="A68" s="1">
+        <v>10050</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C68" s="1">
+        <v>0</v>
+      </c>
+      <c r="D68" s="1">
+        <v>52</v>
+      </c>
+      <c r="E68" s="1">
+        <v>2</v>
+      </c>
+      <c r="F68" s="1">
+        <v>20006</v>
+      </c>
+    </row>
+    <row r="69" s="1" customFormat="1" spans="1:6">
+      <c r="A69" s="1">
+        <v>10051</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C69" s="1">
+        <v>0</v>
+      </c>
+      <c r="D69" s="1">
+        <v>54</v>
+      </c>
+      <c r="E69" s="1">
+        <v>5</v>
+      </c>
+      <c r="F69" s="1">
+        <v>20002</v>
+      </c>
+    </row>
+    <row r="70" s="1" customFormat="1" spans="1:6">
+      <c r="A70" s="1">
+        <v>10052</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C70" s="1">
+        <v>0</v>
+      </c>
+      <c r="D70" s="1">
+        <v>55</v>
+      </c>
+      <c r="E70" s="1">
+        <v>7</v>
+      </c>
+      <c r="F70" s="1">
+        <v>20006</v>
+      </c>
+    </row>
+    <row r="71" s="1" customFormat="1" spans="1:6">
+      <c r="A71" s="1">
+        <v>10053</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C71" s="1">
+        <v>0</v>
+      </c>
+      <c r="D71" s="1">
+        <v>56</v>
+      </c>
+      <c r="E71" s="1">
+        <v>5</v>
+      </c>
+      <c r="F71" s="1">
+        <v>10003</v>
+      </c>
+    </row>
+    <row r="72" s="1" customFormat="1" spans="1:6">
+      <c r="A72" s="1">
+        <v>10054</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C72" s="1">
+        <v>0</v>
+      </c>
+      <c r="D72" s="1">
+        <v>60</v>
+      </c>
+      <c r="E72" s="1">
+        <v>1</v>
+      </c>
+      <c r="F72" s="1">
+        <v>10006</v>
+      </c>
+    </row>
+    <row r="73" s="1" customFormat="1" spans="1:6">
+      <c r="A73" s="1">
+        <v>10055</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C73" s="1">
+        <v>0</v>
+      </c>
+      <c r="D73" s="1">
+        <v>60</v>
+      </c>
+      <c r="E73" s="1">
+        <v>2</v>
+      </c>
+      <c r="F73" s="1">
+        <v>10006</v>
+      </c>
+    </row>
+    <row r="74" s="1" customFormat="1" spans="1:6">
+      <c r="A74" s="1">
+        <v>10056</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C74" s="1">
+        <v>0</v>
+      </c>
+      <c r="D74" s="1">
+        <v>60</v>
+      </c>
+      <c r="E74" s="1">
+        <v>3</v>
+      </c>
+      <c r="F74" s="1">
+        <v>10006</v>
+      </c>
+    </row>
+    <row r="75" s="1" customFormat="1" spans="1:6">
+      <c r="A75" s="1">
+        <v>10057</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C75" s="1">
+        <v>0</v>
+      </c>
+      <c r="D75" s="1">
+        <v>60</v>
+      </c>
+      <c r="E75" s="1">
+        <v>4</v>
+      </c>
+      <c r="F75" s="1">
+        <v>10006</v>
+      </c>
+    </row>
+    <row r="76" s="1" customFormat="1" spans="1:6">
+      <c r="A76" s="1">
+        <v>10058</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C76" s="1">
+        <v>0</v>
+      </c>
+      <c r="D76" s="1">
+        <v>60</v>
+      </c>
+      <c r="E76" s="1">
+        <v>5</v>
+      </c>
+      <c r="F76" s="1">
+        <v>10006</v>
+      </c>
+    </row>
+    <row r="77" s="1" customFormat="1" spans="1:6">
+      <c r="A77" s="1">
+        <v>10059</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C77" s="1">
+        <v>0</v>
+      </c>
+      <c r="D77" s="1">
+        <v>60</v>
+      </c>
+      <c r="E77" s="1">
+        <v>6</v>
+      </c>
+      <c r="F77" s="1">
+        <v>10006</v>
+      </c>
+    </row>
+    <row r="78" s="1" customFormat="1" spans="1:6">
+      <c r="A78" s="1">
+        <v>10060</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C78" s="1">
+        <v>0</v>
+      </c>
+      <c r="D78" s="1">
+        <v>60</v>
+      </c>
+      <c r="E78" s="1">
+        <v>7</v>
+      </c>
+      <c r="F78" s="1">
+        <v>10006</v>
+      </c>
+    </row>
+    <row r="79" s="1" customFormat="1" spans="1:6">
+      <c r="A79" s="1">
+        <v>10061</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C79" s="1">
+        <v>0</v>
+      </c>
+      <c r="D79" s="1">
+        <v>60</v>
+      </c>
+      <c r="E79" s="1">
+        <v>8</v>
+      </c>
+      <c r="F79" s="1">
+        <v>10006</v>
+      </c>
+    </row>
+    <row r="80" s="1" customFormat="1" spans="1:6">
+      <c r="A80" s="1">
+        <v>10062</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C80" s="1">
+        <v>0</v>
+      </c>
+      <c r="D80" s="1">
+        <v>60</v>
+      </c>
+      <c r="E80" s="1">
+        <v>9</v>
+      </c>
+      <c r="F80" s="1">
+        <v>10006</v>
+      </c>
+    </row>
+    <row r="81" s="1" customFormat="1" spans="1:6">
+      <c r="A81" s="1">
+        <v>10063</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C81" s="1">
+        <v>0</v>
+      </c>
+      <c r="D81" s="1">
+        <v>60</v>
+      </c>
+      <c r="E81" s="1">
+        <v>10</v>
+      </c>
+      <c r="F81" s="1">
+        <v>10006</v>
+      </c>
+    </row>
+    <row r="82" s="1" customFormat="1" spans="1:6">
+      <c r="A82" s="1">
+        <v>10064</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C82" s="1">
+        <v>0</v>
+      </c>
+      <c r="D82" s="1">
+        <v>61</v>
+      </c>
+      <c r="E82" s="1">
+        <v>2</v>
+      </c>
+      <c r="F82" s="1">
+        <v>20003</v>
+      </c>
+    </row>
+    <row r="83" s="1" customFormat="1" spans="1:6">
+      <c r="A83" s="1">
+        <v>10065</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C83" s="1">
+        <v>0</v>
+      </c>
+      <c r="D83" s="1">
+        <v>61</v>
+      </c>
+      <c r="E83" s="1">
+        <v>5</v>
+      </c>
+      <c r="F83" s="1">
+        <v>20001</v>
+      </c>
+    </row>
+    <row r="84" s="1" customFormat="1" spans="1:6">
+      <c r="A84" s="1">
+        <v>10066</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C84" s="1">
+        <v>0</v>
+      </c>
+      <c r="D84" s="1">
+        <v>61</v>
+      </c>
+      <c r="E84" s="1">
+        <v>8</v>
+      </c>
+      <c r="F84" s="1">
+        <v>20003</v>
+      </c>
+    </row>
+    <row r="85" s="1" customFormat="1" spans="1:6">
+      <c r="A85" s="1">
+        <v>10067</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C85" s="1">
+        <v>0</v>
+      </c>
+      <c r="D85" s="1">
+        <v>62</v>
+      </c>
+      <c r="E85" s="1">
+        <v>2</v>
+      </c>
+      <c r="F85" s="1">
+        <v>20003</v>
+      </c>
+    </row>
+    <row r="86" s="1" customFormat="1" spans="1:6">
+      <c r="A86" s="1">
+        <v>10068</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C86" s="1">
+        <v>2</v>
+      </c>
+      <c r="D86" s="1">
+        <v>62</v>
+      </c>
+      <c r="E86" s="1">
+        <v>5</v>
+      </c>
+      <c r="F86" s="1">
+        <v>20004</v>
+      </c>
+    </row>
+    <row r="87" s="1" customFormat="1" spans="1:6">
+      <c r="A87" s="1">
+        <v>10069</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C87" s="1">
+        <v>0</v>
+      </c>
+      <c r="D87" s="1">
+        <v>62</v>
+      </c>
+      <c r="E87" s="1">
+        <v>8</v>
+      </c>
+      <c r="F87" s="1">
+        <v>20003</v>
+      </c>
+    </row>
+    <row r="88" s="1" customFormat="1" spans="1:6">
+      <c r="A88" s="1">
+        <v>10070</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C88" s="1">
+        <v>0</v>
+      </c>
+      <c r="D88" s="1">
+        <v>63</v>
+      </c>
+      <c r="E88" s="1">
+        <v>2</v>
+      </c>
+      <c r="F88" s="1">
+        <v>20003</v>
+      </c>
+    </row>
+    <row r="89" s="1" customFormat="1" spans="1:6">
+      <c r="A89" s="1">
+        <v>10071</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C89" s="1">
+        <v>0</v>
+      </c>
+      <c r="D89" s="1">
+        <v>63</v>
+      </c>
+      <c r="E89" s="1">
+        <v>8</v>
+      </c>
+      <c r="F89" s="1">
+        <v>20003</v>
+      </c>
+    </row>
+    <row r="90" s="1" customFormat="1" spans="1:6">
+      <c r="A90" s="1">
+        <v>10072</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C90" s="1">
+        <v>0</v>
+      </c>
+      <c r="D90" s="1">
+        <v>64</v>
+      </c>
+      <c r="E90" s="1">
+        <v>2</v>
+      </c>
+      <c r="F90" s="1">
+        <v>20003</v>
+      </c>
+    </row>
+    <row r="91" s="1" customFormat="1" spans="1:6">
+      <c r="A91" s="1">
+        <v>10073</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C91" s="1">
+        <v>0</v>
+      </c>
+      <c r="D91" s="1">
+        <v>64</v>
+      </c>
+      <c r="E91" s="1">
+        <v>3</v>
+      </c>
+      <c r="F91" s="1">
+        <v>20003</v>
+      </c>
+    </row>
+    <row r="92" s="1" customFormat="1" spans="1:6">
+      <c r="A92" s="1">
+        <v>10074</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C92" s="1">
+        <v>0</v>
+      </c>
+      <c r="D92" s="1">
+        <v>64</v>
+      </c>
+      <c r="E92" s="1">
+        <v>4</v>
+      </c>
+      <c r="F92" s="1">
+        <v>20003</v>
+      </c>
+    </row>
+    <row r="93" s="1" customFormat="1" spans="1:6">
+      <c r="A93" s="1">
+        <v>10075</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C93" s="1">
+        <v>0</v>
+      </c>
+      <c r="D93" s="1">
+        <v>64</v>
+      </c>
+      <c r="E93" s="1">
+        <v>5</v>
+      </c>
+      <c r="F93" s="1">
+        <v>20003</v>
+      </c>
+    </row>
+    <row r="94" s="1" customFormat="1" spans="1:6">
+      <c r="A94" s="1">
+        <v>10076</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C94" s="1">
+        <v>0</v>
+      </c>
+      <c r="D94" s="1">
+        <v>64</v>
+      </c>
+      <c r="E94" s="1">
+        <v>6</v>
+      </c>
+      <c r="F94" s="1">
+        <v>20003</v>
+      </c>
+    </row>
+    <row r="95" s="1" customFormat="1" spans="1:6">
+      <c r="A95" s="1">
+        <v>10077</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C95" s="1">
+        <v>0</v>
+      </c>
+      <c r="D95" s="1">
+        <v>64</v>
+      </c>
+      <c r="E95" s="1">
+        <v>7</v>
+      </c>
+      <c r="F95" s="1">
+        <v>20003</v>
+      </c>
+    </row>
+    <row r="96" s="1" customFormat="1" spans="1:6">
+      <c r="A96" s="1">
+        <v>10078</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C96" s="1">
+        <v>0</v>
+      </c>
+      <c r="D96" s="1">
+        <v>64</v>
+      </c>
+      <c r="E96" s="1">
+        <v>8</v>
+      </c>
+      <c r="F96" s="1">
+        <v>20003</v>
+      </c>
+    </row>
+    <row r="97" s="1" customFormat="1" spans="1:6">
+      <c r="A97" s="1">
+        <v>10079</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C97" s="1">
+        <v>0</v>
+      </c>
+      <c r="D97" s="1">
+        <v>65</v>
+      </c>
+      <c r="E97" s="1">
+        <v>5</v>
+      </c>
+      <c r="F97" s="1">
+        <v>20002</v>
+      </c>
+    </row>
+    <row r="98" s="1" customFormat="1" spans="1:6">
+      <c r="A98" s="1">
+        <v>10080</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C98" s="1">
+        <v>0</v>
+      </c>
+      <c r="D98" s="1">
+        <v>66</v>
+      </c>
+      <c r="E98" s="1">
+        <v>5</v>
+      </c>
+      <c r="F98" s="1">
+        <v>10003</v>
+      </c>
+    </row>
+    <row r="99" s="1" customFormat="1" spans="1:6">
+      <c r="A99" s="1">
+        <v>10081</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C99" s="1">
+        <v>0</v>
+      </c>
+      <c r="D99" s="1">
+        <v>69</v>
+      </c>
+      <c r="E99" s="1">
+        <v>7</v>
+      </c>
+      <c r="F99" s="1">
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="100" s="1" customFormat="1" spans="1:6">
+      <c r="A100" s="1">
+        <v>10082</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C100" s="1">
+        <v>0</v>
+      </c>
+      <c r="D100" s="1">
+        <v>70</v>
+      </c>
+      <c r="E100" s="1">
+        <v>2</v>
+      </c>
+      <c r="F100" s="1">
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="101" s="1" customFormat="1" spans="1:6">
+      <c r="A101" s="1">
+        <v>10083</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C101" s="1">
+        <v>2</v>
+      </c>
+      <c r="D101" s="1">
+        <v>70</v>
+      </c>
+      <c r="E101" s="1">
+        <v>5</v>
+      </c>
+      <c r="F101" s="1">
+        <v>20004</v>
+      </c>
+    </row>
+    <row r="102" s="1" customFormat="1" spans="1:6">
+      <c r="A102" s="1">
+        <v>10084</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C102" s="1">
+        <v>0</v>
+      </c>
+      <c r="D102" s="1">
+        <v>72</v>
+      </c>
+      <c r="E102" s="1">
+        <v>2</v>
+      </c>
+      <c r="F102" s="1">
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="103" s="1" customFormat="1" spans="1:6">
+      <c r="A103" s="1">
+        <v>10085</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C103" s="1">
+        <v>0</v>
+      </c>
+      <c r="D103" s="1">
+        <v>72</v>
+      </c>
+      <c r="E103" s="1">
+        <v>8</v>
+      </c>
+      <c r="F103" s="1">
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="104" s="1" customFormat="1" spans="1:6">
+      <c r="A104" s="1">
+        <v>10086</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C104" s="1">
+        <v>0</v>
+      </c>
+      <c r="D104" s="1">
+        <v>73</v>
+      </c>
+      <c r="E104" s="1">
+        <v>3</v>
+      </c>
+      <c r="F104" s="1">
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="105" s="1" customFormat="1" spans="1:6">
+      <c r="A105" s="1">
+        <v>10087</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C105" s="1">
+        <v>0</v>
+      </c>
+      <c r="D105" s="1">
+        <v>74</v>
+      </c>
+      <c r="E105" s="1">
+        <v>6</v>
+      </c>
+      <c r="F105" s="1">
         <v>10001</v>
       </c>
     </row>

--- a/Excel/MapData.xlsx
+++ b/Excel/MapData.xlsx
@@ -1272,8 +1272,8 @@
   <sheetPr/>
   <dimension ref="A1:F105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23148148148148" defaultRowHeight="14.4" outlineLevelCol="5"/>

--- a/Excel/MapData.xlsx
+++ b/Excel/MapData.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="31">
   <si>
     <t>int</t>
   </si>
@@ -110,19 +110,16 @@
     <t>磁带</t>
   </si>
   <si>
+    <t>路灯</t>
+  </si>
+  <si>
+    <t>乌鸦</t>
+  </si>
+  <si>
     <t>石头</t>
   </si>
   <si>
     <t>狼</t>
-  </si>
-  <si>
-    <t>沼泽</t>
-  </si>
-  <si>
-    <t>路灯</t>
-  </si>
-  <si>
-    <t>乌鸦</t>
   </si>
 </sst>
 </file>
@@ -1270,10 +1267,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F105"/>
+  <dimension ref="A1:F96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:F96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23148148148148" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1506,7 +1503,7 @@
         <v>0</v>
       </c>
       <c r="D24" s="1">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
@@ -1526,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="D25" s="1">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E25" s="1">
         <v>2</v>
@@ -1546,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="D26" s="1">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E26" s="1">
         <v>3</v>
@@ -1566,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="D27" s="1">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E27" s="1">
         <v>4</v>
@@ -1586,7 +1583,7 @@
         <v>0</v>
       </c>
       <c r="D28" s="1">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E28" s="1">
         <v>5</v>
@@ -1606,7 +1603,7 @@
         <v>0</v>
       </c>
       <c r="D29" s="1">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E29" s="1">
         <v>6</v>
@@ -1626,7 +1623,7 @@
         <v>0</v>
       </c>
       <c r="D30" s="1">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E30" s="1">
         <v>7</v>
@@ -1646,7 +1643,7 @@
         <v>0</v>
       </c>
       <c r="D31" s="1">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E31" s="1">
         <v>8</v>
@@ -1666,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="D32" s="1">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E32" s="1">
         <v>9</v>
@@ -1686,7 +1683,7 @@
         <v>0</v>
       </c>
       <c r="D33" s="1">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E33" s="1">
         <v>10</v>
@@ -1706,7 +1703,7 @@
         <v>0</v>
       </c>
       <c r="D34" s="1">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E34" s="1">
         <v>5</v>
@@ -1720,19 +1717,19 @@
         <v>10017</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C35" s="1">
         <v>0</v>
       </c>
       <c r="D35" s="1">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E35" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F35" s="1">
-        <v>20002</v>
+        <v>10001</v>
       </c>
     </row>
     <row r="36" s="1" customFormat="1" spans="1:6">
@@ -1743,16 +1740,16 @@
         <v>27</v>
       </c>
       <c r="C36" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D36" s="1">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E36" s="1">
         <v>5</v>
       </c>
       <c r="F36" s="1">
-        <v>20003</v>
+        <v>20004</v>
       </c>
     </row>
     <row r="37" s="1" customFormat="1" spans="1:6">
@@ -1760,19 +1757,19 @@
         <v>10019</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C37" s="1">
         <v>0</v>
       </c>
       <c r="D37" s="1">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E37" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F37" s="1">
-        <v>20003</v>
+        <v>10001</v>
       </c>
     </row>
     <row r="38" s="1" customFormat="1" spans="1:6">
@@ -1780,19 +1777,19 @@
         <v>10020</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C38" s="1">
         <v>0</v>
       </c>
       <c r="D38" s="1">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E38" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F38" s="1">
-        <v>20003</v>
+        <v>10001</v>
       </c>
     </row>
     <row r="39" s="1" customFormat="1" spans="1:6">
@@ -1800,19 +1797,19 @@
         <v>10021</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C39" s="1">
         <v>2</v>
       </c>
       <c r="D39" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E39" s="1">
         <v>5</v>
       </c>
       <c r="F39" s="1">
-        <v>10002</v>
+        <v>20004</v>
       </c>
     </row>
     <row r="40" s="1" customFormat="1" spans="1:6">
@@ -1820,19 +1817,19 @@
         <v>10022</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C40" s="1">
         <v>0</v>
       </c>
       <c r="D40" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E40" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F40" s="1">
-        <v>10001</v>
+        <v>10003</v>
       </c>
     </row>
     <row r="41" s="1" customFormat="1" spans="1:6">
@@ -1840,19 +1837,19 @@
         <v>10023</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C41" s="1">
         <v>0</v>
       </c>
       <c r="D41" s="1">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E41" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F41" s="1">
-        <v>10001</v>
+        <v>10006</v>
       </c>
     </row>
     <row r="42" s="1" customFormat="1" spans="1:6">
@@ -1860,19 +1857,19 @@
         <v>10024</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C42" s="1">
         <v>0</v>
       </c>
       <c r="D42" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E42" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F42" s="1">
-        <v>20006</v>
+        <v>10006</v>
       </c>
     </row>
     <row r="43" s="1" customFormat="1" spans="1:6">
@@ -1880,19 +1877,19 @@
         <v>10025</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C43" s="1">
         <v>0</v>
       </c>
       <c r="D43" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E43" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F43" s="1">
-        <v>20006</v>
+        <v>10006</v>
       </c>
     </row>
     <row r="44" s="1" customFormat="1" spans="1:6">
@@ -1900,19 +1897,19 @@
         <v>10026</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C44" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D44" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E44" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F44" s="1">
-        <v>20004</v>
+        <v>10006</v>
       </c>
     </row>
     <row r="45" s="1" customFormat="1" spans="1:6">
@@ -1920,19 +1917,19 @@
         <v>10027</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C45" s="1">
         <v>0</v>
       </c>
       <c r="D45" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E45" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F45" s="1">
-        <v>20006</v>
+        <v>10006</v>
       </c>
     </row>
     <row r="46" s="1" customFormat="1" spans="1:6">
@@ -1940,19 +1937,19 @@
         <v>10028</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C46" s="1">
         <v>0</v>
       </c>
       <c r="D46" s="1">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E46" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F46" s="1">
-        <v>10001</v>
+        <v>10006</v>
       </c>
     </row>
     <row r="47" s="1" customFormat="1" spans="1:6">
@@ -1966,10 +1963,10 @@
         <v>0</v>
       </c>
       <c r="D47" s="1">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E47" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F47" s="1">
         <v>10006</v>
@@ -1986,10 +1983,10 @@
         <v>0</v>
       </c>
       <c r="D48" s="1">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E48" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F48" s="1">
         <v>10006</v>
@@ -2006,10 +2003,10 @@
         <v>0</v>
       </c>
       <c r="D49" s="1">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E49" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F49" s="1">
         <v>10006</v>
@@ -2026,10 +2023,10 @@
         <v>0</v>
       </c>
       <c r="D50" s="1">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E50" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F50" s="1">
         <v>10006</v>
@@ -2040,19 +2037,19 @@
         <v>10033</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C51" s="1">
         <v>0</v>
       </c>
       <c r="D51" s="1">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E51" s="1">
         <v>5</v>
       </c>
       <c r="F51" s="1">
-        <v>10006</v>
+        <v>20001</v>
       </c>
     </row>
     <row r="52" s="1" customFormat="1" spans="1:6">
@@ -2060,19 +2057,19 @@
         <v>10034</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C52" s="1">
         <v>0</v>
       </c>
       <c r="D52" s="1">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E52" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F52" s="1">
-        <v>10006</v>
+        <v>10001</v>
       </c>
     </row>
     <row r="53" s="1" customFormat="1" spans="1:6">
@@ -2080,7 +2077,7 @@
         <v>10035</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C53" s="1">
         <v>0</v>
@@ -2089,10 +2086,10 @@
         <v>37</v>
       </c>
       <c r="E53" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F53" s="1">
-        <v>10006</v>
+        <v>20003</v>
       </c>
     </row>
     <row r="54" s="1" customFormat="1" spans="1:6">
@@ -2100,19 +2097,19 @@
         <v>10036</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C54" s="1">
         <v>0</v>
       </c>
       <c r="D54" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E54" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F54" s="1">
-        <v>10006</v>
+        <v>20002</v>
       </c>
     </row>
     <row r="55" s="1" customFormat="1" spans="1:6">
@@ -2120,19 +2117,19 @@
         <v>10037</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C55" s="1">
         <v>0</v>
       </c>
       <c r="D55" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E55" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F55" s="1">
-        <v>10006</v>
+        <v>20003</v>
       </c>
     </row>
     <row r="56" s="1" customFormat="1" spans="1:6">
@@ -2140,19 +2137,19 @@
         <v>10038</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C56" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D56" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E56" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F56" s="1">
-        <v>10006</v>
+        <v>20004</v>
       </c>
     </row>
     <row r="57" s="1" customFormat="1" spans="1:6">
@@ -2160,19 +2157,19 @@
         <v>10039</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C57" s="1">
         <v>0</v>
       </c>
       <c r="D57" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E57" s="1">
         <v>5</v>
       </c>
       <c r="F57" s="1">
-        <v>20001</v>
+        <v>20003</v>
       </c>
     </row>
     <row r="58" s="1" customFormat="1" spans="1:6">
@@ -2180,19 +2177,19 @@
         <v>10040</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C58" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D58" s="1">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E58" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F58" s="1">
-        <v>10002</v>
+        <v>10001</v>
       </c>
     </row>
     <row r="59" s="1" customFormat="1" spans="1:6">
@@ -2200,19 +2197,19 @@
         <v>10041</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C59" s="1">
         <v>0</v>
       </c>
       <c r="D59" s="1">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E59" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F59" s="1">
-        <v>20003</v>
+        <v>10001</v>
       </c>
     </row>
     <row r="60" s="1" customFormat="1" spans="1:6">
@@ -2220,19 +2217,19 @@
         <v>10042</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C60" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D60" s="1">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E60" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F60" s="1">
-        <v>20002</v>
+        <v>20004</v>
       </c>
     </row>
     <row r="61" s="1" customFormat="1" spans="1:6">
@@ -2240,19 +2237,19 @@
         <v>10043</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C61" s="1">
         <v>0</v>
       </c>
       <c r="D61" s="1">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E61" s="1">
         <v>5</v>
       </c>
       <c r="F61" s="1">
-        <v>20003</v>
+        <v>10003</v>
       </c>
     </row>
     <row r="62" s="1" customFormat="1" spans="1:6">
@@ -2260,19 +2257,19 @@
         <v>10044</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C62" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D62" s="1">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E62" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F62" s="1">
-        <v>20004</v>
+        <v>10006</v>
       </c>
     </row>
     <row r="63" s="1" customFormat="1" spans="1:6">
@@ -2280,19 +2277,19 @@
         <v>10045</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C63" s="1">
         <v>0</v>
       </c>
       <c r="D63" s="1">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E63" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F63" s="1">
-        <v>20003</v>
+        <v>10006</v>
       </c>
     </row>
     <row r="64" s="1" customFormat="1" spans="1:6">
@@ -2300,19 +2297,19 @@
         <v>10046</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C64" s="1">
         <v>0</v>
       </c>
       <c r="D64" s="1">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E64" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F64" s="1">
-        <v>10001</v>
+        <v>10006</v>
       </c>
     </row>
     <row r="65" s="1" customFormat="1" spans="1:6">
@@ -2320,19 +2317,19 @@
         <v>10047</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C65" s="1">
         <v>0</v>
       </c>
       <c r="D65" s="1">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E65" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F65" s="1">
-        <v>10001</v>
+        <v>10006</v>
       </c>
     </row>
     <row r="66" s="1" customFormat="1" spans="1:6">
@@ -2340,19 +2337,19 @@
         <v>10048</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C66" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D66" s="1">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E66" s="1">
         <v>5</v>
       </c>
       <c r="F66" s="1">
-        <v>20004</v>
+        <v>10006</v>
       </c>
     </row>
     <row r="67" s="1" customFormat="1" spans="1:6">
@@ -2360,19 +2357,19 @@
         <v>10049</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C67" s="1">
         <v>0</v>
       </c>
       <c r="D67" s="1">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E67" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F67" s="1">
-        <v>20006</v>
+        <v>10006</v>
       </c>
     </row>
     <row r="68" s="1" customFormat="1" spans="1:6">
@@ -2380,19 +2377,19 @@
         <v>10050</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C68" s="1">
         <v>0</v>
       </c>
       <c r="D68" s="1">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E68" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F68" s="1">
-        <v>20006</v>
+        <v>10006</v>
       </c>
     </row>
     <row r="69" s="1" customFormat="1" spans="1:6">
@@ -2400,19 +2397,19 @@
         <v>10051</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C69" s="1">
         <v>0</v>
       </c>
       <c r="D69" s="1">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E69" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F69" s="1">
-        <v>20002</v>
+        <v>10006</v>
       </c>
     </row>
     <row r="70" s="1" customFormat="1" spans="1:6">
@@ -2420,19 +2417,19 @@
         <v>10052</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C70" s="1">
         <v>0</v>
       </c>
       <c r="D70" s="1">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E70" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F70" s="1">
-        <v>20006</v>
+        <v>10006</v>
       </c>
     </row>
     <row r="71" s="1" customFormat="1" spans="1:6">
@@ -2440,19 +2437,19 @@
         <v>10053</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C71" s="1">
         <v>0</v>
       </c>
       <c r="D71" s="1">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E71" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F71" s="1">
-        <v>10003</v>
+        <v>10006</v>
       </c>
     </row>
     <row r="72" s="1" customFormat="1" spans="1:6">
@@ -2460,19 +2457,19 @@
         <v>10054</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C72" s="1">
         <v>0</v>
       </c>
       <c r="D72" s="1">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E72" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F72" s="1">
-        <v>10006</v>
+        <v>20001</v>
       </c>
     </row>
     <row r="73" s="1" customFormat="1" spans="1:6">
@@ -2480,19 +2477,19 @@
         <v>10055</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C73" s="1">
         <v>0</v>
       </c>
       <c r="D73" s="1">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E73" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F73" s="1">
-        <v>10006</v>
+        <v>10001</v>
       </c>
     </row>
     <row r="74" s="1" customFormat="1" spans="1:6">
@@ -2500,19 +2497,19 @@
         <v>10056</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C74" s="1">
         <v>0</v>
       </c>
       <c r="D74" s="1">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E74" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F74" s="1">
-        <v>10006</v>
+        <v>20002</v>
       </c>
     </row>
     <row r="75" s="1" customFormat="1" spans="1:6">
@@ -2520,19 +2517,19 @@
         <v>10057</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C75" s="1">
         <v>0</v>
       </c>
       <c r="D75" s="1">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E75" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F75" s="1">
-        <v>10006</v>
+        <v>20003</v>
       </c>
     </row>
     <row r="76" s="1" customFormat="1" spans="1:6">
@@ -2540,19 +2537,19 @@
         <v>10058</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C76" s="1">
         <v>0</v>
       </c>
       <c r="D76" s="1">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E76" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F76" s="1">
-        <v>10006</v>
+        <v>20003</v>
       </c>
     </row>
     <row r="77" s="1" customFormat="1" spans="1:6">
@@ -2560,19 +2557,19 @@
         <v>10059</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C77" s="1">
         <v>0</v>
       </c>
       <c r="D77" s="1">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E77" s="1">
         <v>6</v>
       </c>
       <c r="F77" s="1">
-        <v>10006</v>
+        <v>20003</v>
       </c>
     </row>
     <row r="78" s="1" customFormat="1" spans="1:6">
@@ -2580,19 +2577,19 @@
         <v>10060</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C78" s="1">
         <v>0</v>
       </c>
       <c r="D78" s="1">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E78" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F78" s="1">
-        <v>10006</v>
+        <v>10001</v>
       </c>
     </row>
     <row r="79" s="1" customFormat="1" spans="1:6">
@@ -2600,19 +2597,19 @@
         <v>10061</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C79" s="1">
         <v>0</v>
       </c>
       <c r="D79" s="1">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E79" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F79" s="1">
-        <v>10006</v>
+        <v>10002</v>
       </c>
     </row>
     <row r="80" s="1" customFormat="1" spans="1:6">
@@ -2620,19 +2617,19 @@
         <v>10062</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C80" s="1">
         <v>0</v>
       </c>
       <c r="D80" s="1">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E80" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F80" s="1">
-        <v>10006</v>
+        <v>10001</v>
       </c>
     </row>
     <row r="81" s="1" customFormat="1" spans="1:6">
@@ -2646,10 +2643,10 @@
         <v>0</v>
       </c>
       <c r="D81" s="1">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="E81" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F81" s="1">
         <v>10006</v>
@@ -2660,19 +2657,19 @@
         <v>10064</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C82" s="1">
         <v>0</v>
       </c>
       <c r="D82" s="1">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E82" s="1">
         <v>2</v>
       </c>
       <c r="F82" s="1">
-        <v>20003</v>
+        <v>10006</v>
       </c>
     </row>
     <row r="83" s="1" customFormat="1" spans="1:6">
@@ -2680,19 +2677,19 @@
         <v>10065</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C83" s="1">
         <v>0</v>
       </c>
       <c r="D83" s="1">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E83" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F83" s="1">
-        <v>20001</v>
+        <v>10006</v>
       </c>
     </row>
     <row r="84" s="1" customFormat="1" spans="1:6">
@@ -2700,19 +2697,19 @@
         <v>10066</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C84" s="1">
         <v>0</v>
       </c>
       <c r="D84" s="1">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E84" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F84" s="1">
-        <v>20003</v>
+        <v>10006</v>
       </c>
     </row>
     <row r="85" s="1" customFormat="1" spans="1:6">
@@ -2720,19 +2717,19 @@
         <v>10067</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C85" s="1">
         <v>0</v>
       </c>
       <c r="D85" s="1">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E85" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F85" s="1">
-        <v>20003</v>
+        <v>10006</v>
       </c>
     </row>
     <row r="86" s="1" customFormat="1" spans="1:6">
@@ -2740,19 +2737,19 @@
         <v>10068</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C86" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D86" s="1">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E86" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F86" s="1">
-        <v>20004</v>
+        <v>10006</v>
       </c>
     </row>
     <row r="87" s="1" customFormat="1" spans="1:6">
@@ -2760,19 +2757,19 @@
         <v>10069</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C87" s="1">
         <v>0</v>
       </c>
       <c r="D87" s="1">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E87" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F87" s="1">
-        <v>20003</v>
+        <v>10006</v>
       </c>
     </row>
     <row r="88" s="1" customFormat="1" spans="1:6">
@@ -2780,19 +2777,19 @@
         <v>10070</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C88" s="1">
         <v>0</v>
       </c>
       <c r="D88" s="1">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E88" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F88" s="1">
-        <v>20003</v>
+        <v>10006</v>
       </c>
     </row>
     <row r="89" s="1" customFormat="1" spans="1:6">
@@ -2800,19 +2797,19 @@
         <v>10071</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C89" s="1">
         <v>0</v>
       </c>
       <c r="D89" s="1">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E89" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F89" s="1">
-        <v>20003</v>
+        <v>10006</v>
       </c>
     </row>
     <row r="90" s="1" customFormat="1" spans="1:6">
@@ -2820,19 +2817,19 @@
         <v>10072</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C90" s="1">
         <v>0</v>
       </c>
       <c r="D90" s="1">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E90" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F90" s="1">
-        <v>20003</v>
+        <v>10006</v>
       </c>
     </row>
     <row r="91" s="1" customFormat="1" spans="1:6">
@@ -2840,19 +2837,19 @@
         <v>10073</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C91" s="1">
         <v>0</v>
       </c>
       <c r="D91" s="1">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E91" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F91" s="1">
-        <v>20003</v>
+        <v>20001</v>
       </c>
     </row>
     <row r="92" s="1" customFormat="1" spans="1:6">
@@ -2860,19 +2857,19 @@
         <v>10074</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C92" s="1">
         <v>0</v>
       </c>
       <c r="D92" s="1">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="E92" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F92" s="1">
-        <v>20003</v>
+        <v>10002</v>
       </c>
     </row>
     <row r="93" s="1" customFormat="1" spans="1:6">
@@ -2880,19 +2877,19 @@
         <v>10075</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C93" s="1">
         <v>0</v>
       </c>
       <c r="D93" s="1">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="E93" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F93" s="1">
-        <v>20003</v>
+        <v>20002</v>
       </c>
     </row>
     <row r="94" s="1" customFormat="1" spans="1:6">
@@ -2903,16 +2900,16 @@
         <v>27</v>
       </c>
       <c r="C94" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D94" s="1">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="E94" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F94" s="1">
-        <v>20003</v>
+        <v>20004</v>
       </c>
     </row>
     <row r="95" s="1" customFormat="1" spans="1:6">
@@ -2920,19 +2917,19 @@
         <v>10077</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C95" s="1">
         <v>0</v>
       </c>
       <c r="D95" s="1">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="E95" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F95" s="1">
-        <v>20003</v>
+        <v>10003</v>
       </c>
     </row>
     <row r="96" s="1" customFormat="1" spans="1:6">
@@ -2946,193 +2943,13 @@
         <v>0</v>
       </c>
       <c r="D96" s="1">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="E96" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F96" s="1">
-        <v>20003</v>
-      </c>
-    </row>
-    <row r="97" s="1" customFormat="1" spans="1:6">
-      <c r="A97" s="1">
-        <v>10079</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C97" s="1">
-        <v>0</v>
-      </c>
-      <c r="D97" s="1">
-        <v>65</v>
-      </c>
-      <c r="E97" s="1">
-        <v>5</v>
-      </c>
-      <c r="F97" s="1">
-        <v>20002</v>
-      </c>
-    </row>
-    <row r="98" s="1" customFormat="1" spans="1:6">
-      <c r="A98" s="1">
-        <v>10080</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C98" s="1">
-        <v>0</v>
-      </c>
-      <c r="D98" s="1">
-        <v>66</v>
-      </c>
-      <c r="E98" s="1">
-        <v>5</v>
-      </c>
-      <c r="F98" s="1">
-        <v>10003</v>
-      </c>
-    </row>
-    <row r="99" s="1" customFormat="1" spans="1:6">
-      <c r="A99" s="1">
-        <v>10081</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C99" s="1">
-        <v>0</v>
-      </c>
-      <c r="D99" s="1">
-        <v>69</v>
-      </c>
-      <c r="E99" s="1">
-        <v>7</v>
-      </c>
-      <c r="F99" s="1">
-        <v>10001</v>
-      </c>
-    </row>
-    <row r="100" s="1" customFormat="1" spans="1:6">
-      <c r="A100" s="1">
-        <v>10082</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C100" s="1">
-        <v>0</v>
-      </c>
-      <c r="D100" s="1">
-        <v>70</v>
-      </c>
-      <c r="E100" s="1">
-        <v>2</v>
-      </c>
-      <c r="F100" s="1">
-        <v>10001</v>
-      </c>
-    </row>
-    <row r="101" s="1" customFormat="1" spans="1:6">
-      <c r="A101" s="1">
-        <v>10083</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C101" s="1">
-        <v>2</v>
-      </c>
-      <c r="D101" s="1">
-        <v>70</v>
-      </c>
-      <c r="E101" s="1">
-        <v>5</v>
-      </c>
-      <c r="F101" s="1">
         <v>20004</v>
-      </c>
-    </row>
-    <row r="102" s="1" customFormat="1" spans="1:6">
-      <c r="A102" s="1">
-        <v>10084</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C102" s="1">
-        <v>0</v>
-      </c>
-      <c r="D102" s="1">
-        <v>72</v>
-      </c>
-      <c r="E102" s="1">
-        <v>2</v>
-      </c>
-      <c r="F102" s="1">
-        <v>10001</v>
-      </c>
-    </row>
-    <row r="103" s="1" customFormat="1" spans="1:6">
-      <c r="A103" s="1">
-        <v>10085</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C103" s="1">
-        <v>0</v>
-      </c>
-      <c r="D103" s="1">
-        <v>72</v>
-      </c>
-      <c r="E103" s="1">
-        <v>8</v>
-      </c>
-      <c r="F103" s="1">
-        <v>10001</v>
-      </c>
-    </row>
-    <row r="104" s="1" customFormat="1" spans="1:6">
-      <c r="A104" s="1">
-        <v>10086</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C104" s="1">
-        <v>0</v>
-      </c>
-      <c r="D104" s="1">
-        <v>73</v>
-      </c>
-      <c r="E104" s="1">
-        <v>3</v>
-      </c>
-      <c r="F104" s="1">
-        <v>10001</v>
-      </c>
-    </row>
-    <row r="105" s="1" customFormat="1" spans="1:6">
-      <c r="A105" s="1">
-        <v>10087</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C105" s="1">
-        <v>0</v>
-      </c>
-      <c r="D105" s="1">
-        <v>74</v>
-      </c>
-      <c r="E105" s="1">
-        <v>6</v>
-      </c>
-      <c r="F105" s="1">
-        <v>10001</v>
       </c>
     </row>
   </sheetData>
